--- a/Excel/TI/Mon_TI_2024_03_15.xlsx
+++ b/Excel/TI/Mon_TI_2024_03_15.xlsx
@@ -628,12 +628,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cade Cunningham</t>
+          <t>Devin Booker</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -642,71 +642,83 @@
           <t>G</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F2" t="n">
-        <v>35.4</v>
+        <v>36</v>
       </c>
       <c r="G2" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="H2" t="n">
-        <v>32.2</v>
+        <v>41.1</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
         <v>2</v>
       </c>
-      <c r="L2" t="n">
-        <v>3</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
       <c r="N2" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="O2" t="n">
-        <v>49</v>
-      </c>
-      <c r="P2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>12</v>
-      </c>
-      <c r="R2" t="n">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X2" t="n">
-        <v>39</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
@@ -720,22 +732,22 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -745,62 +757,70 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-13.1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Cade Cunningham</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>27.8</v>
+        <v>37</v>
       </c>
       <c r="G3" t="n">
-        <v>33.9</v>
+        <v>34.5</v>
       </c>
       <c r="H3" t="n">
-        <v>37.1</v>
+        <v>31.9</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -812,45 +832,45 @@
         <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="P3" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="Q3" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X3" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
@@ -864,12 +884,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -879,17 +899,17 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -899,16 +919,16 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
@@ -932,43 +952,43 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>35.2</v>
+        <v>38.6</v>
       </c>
       <c r="G4" t="n">
-        <v>33.2</v>
+        <v>34.3</v>
       </c>
       <c r="H4" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
         <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
+        <v>48</v>
+      </c>
+      <c r="O4" t="n">
         <v>27</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>66</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>18</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>34</v>
-      </c>
-      <c r="R4" t="n">
-        <v>31</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -1054,7 +1074,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
@@ -1062,63 +1082,63 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>James Harden</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Bam Adebayo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>27.8</v>
+        <v>26.8</v>
       </c>
       <c r="G5" t="n">
-        <v>32.8</v>
+        <v>34.1</v>
       </c>
       <c r="H5" t="n">
-        <v>31.6</v>
+        <v>37.1</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="O5" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P5" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="Q5" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="R5" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1127,174 +1147,168 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>27</v>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X5" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
           <t>NOP</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V5" t="n">
-        <v>36</v>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X5" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
       <c r="AI5" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>10</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>34.4</v>
+        <v>36.6</v>
       </c>
       <c r="G6" t="n">
-        <v>32.1</v>
+        <v>32.8</v>
       </c>
       <c r="H6" t="n">
-        <v>31.5</v>
+        <v>31.8</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="n">
         <v>2</v>
       </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
       <c r="N6" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O6" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P6" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="Q6" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R6" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>34</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X6" t="n">
+        <v>39</v>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
@@ -1308,12 +1322,12 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1323,7 +1337,7 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1333,26 +1347,26 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
@@ -1360,77 +1374,79 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Miles Bridges</t>
+          <t>Jamal Murray</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>32</v>
+        <v>37.6</v>
       </c>
       <c r="G7" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="H7" t="n">
         <v>31.5</v>
       </c>
-      <c r="H7" t="n">
-        <v>30.5</v>
-      </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
         <v>2</v>
       </c>
-      <c r="L7" t="n">
-        <v>4</v>
-      </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="O7" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P7" t="n">
-        <v>-2</v>
+        <v>59</v>
       </c>
       <c r="Q7" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R7" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V7" t="n">
-        <v>11</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1459,7 +1475,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1469,17 +1485,17 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1489,16 +1505,16 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>3</v>
+        <v>-1.4</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
@@ -1506,59 +1522,59 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Miles Bridges</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>26.6</v>
+        <v>29.8</v>
       </c>
       <c r="G8" t="n">
-        <v>31.3</v>
+        <v>30.8</v>
       </c>
       <c r="H8" t="n">
-        <v>31.1</v>
+        <v>30.7</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="O8" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="P8" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q8" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="R8" t="n">
-        <v>32</v>
+        <v>-2</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1567,7 +1583,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1576,15 +1592,17 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X8" t="n">
-        <v>39</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
@@ -1598,12 +1616,12 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1613,27 +1631,27 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1642,7 +1660,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.4</v>
+        <v>2.8</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
@@ -1650,83 +1668,81 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+          <t>Bradley Beal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F9" t="n">
         <v>31.4</v>
       </c>
       <c r="G9" t="n">
-        <v>30.6</v>
+        <v>29.8</v>
       </c>
       <c r="H9" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>34</v>
       </c>
       <c r="O9" t="n">
         <v>35</v>
       </c>
       <c r="P9" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="Q9" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R9" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1755,7 +1771,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1765,7 +1781,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -1775,7 +1791,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1785,46 +1801,58 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
+        <v>0.9</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>James Harden</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Day-To-Day</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F10" t="n">
-        <v>32</v>
+        <v>29.4</v>
       </c>
       <c r="G10" t="n">
-        <v>26.7</v>
+        <v>29.8</v>
       </c>
       <c r="H10" t="n">
-        <v>24</v>
+        <v>31.4</v>
       </c>
       <c r="I10" t="n">
         <v>11</v>
@@ -1833,28 +1861,30 @@
         <v>4</v>
       </c>
       <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
         <v>3</v>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
       <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="n">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O10" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="P10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q10" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="R10" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1863,7 +1893,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1872,36 +1902,32 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X10" t="n">
+        <v>19</v>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z10" t="n">
+        <v>17</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -1911,27 +1937,27 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -1940,71 +1966,71 @@
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
+        <v>-0.1</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>29.2</v>
+        <v>25.2</v>
       </c>
       <c r="G11" t="n">
-        <v>26.2</v>
+        <v>29.5</v>
       </c>
       <c r="H11" t="n">
-        <v>26.4</v>
+        <v>24.3</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
         <v>2</v>
       </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q11" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="R11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -2013,7 +2039,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -2022,7 +2048,7 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -2051,17 +2077,17 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2071,7 +2097,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2081,7 +2107,7 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -2090,24 +2116,20 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>6</v>
-      </c>
+        <v>-1.2</v>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -2116,45 +2138,51 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F12" t="n">
-        <v>17.2</v>
+        <v>39.2</v>
       </c>
       <c r="G12" t="n">
-        <v>25.7</v>
+        <v>28</v>
       </c>
       <c r="H12" t="n">
-        <v>29.1</v>
+        <v>31.2</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
         <v>5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="O12" t="n">
-        <v>6</v>
-      </c>
-      <c r="P12" t="n">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="R12" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -2163,7 +2191,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -2172,27 +2200,23 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>21</v>
+        <v>-5</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X12" t="n">
+        <v>36</v>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v>37</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
@@ -2201,27 +2225,27 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2231,7 +2255,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -2240,77 +2264,71 @@
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
+        <v>-0.2</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Paul George</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Day-To-Day</t>
-        </is>
-      </c>
+          <t>Franz Wagner</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>25.5</v>
+        <v>26.7</v>
       </c>
       <c r="H13" t="n">
-        <v>30.7</v>
+        <v>29</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>25</v>
       </c>
       <c r="O13" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="P13" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="Q13" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -2319,63 +2337,67 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>21</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
           <t>NOP</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X13" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
       <c r="AG13" t="inlineStr">
         <is>
           <t>vs</t>
@@ -2383,7 +2405,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -2392,14 +2414,10 @@
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>9</v>
-      </c>
+        <v>-2.8</v>
+      </c>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2420,10 +2438,10 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>26.4</v>
+        <v>22.4</v>
       </c>
       <c r="G14" t="n">
-        <v>23.7</v>
+        <v>22.1</v>
       </c>
       <c r="H14" t="n">
         <v>21.2</v>
@@ -2435,30 +2453,28 @@
         <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>14</v>
+      </c>
+      <c r="O14" t="n">
+        <v>27</v>
+      </c>
+      <c r="P14" t="n">
         <v>25</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>24</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
         <v>22</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>38</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -2552,12 +2568,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
+          <t>Trae Young</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2570,22 +2586,18 @@
           <t>G</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>39.2</v>
+        <v>25.4</v>
       </c>
       <c r="G15" t="n">
-        <v>40.5</v>
+        <v>35</v>
       </c>
       <c r="H15" t="n">
-        <v>41.4</v>
+        <v>37.6</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -2594,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -2619,8 +2631,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R15" t="n">
-        <v>32</v>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -2629,101 +2643,99 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
           <t>CHA</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V15" t="n">
-        <v>60</v>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
       <c r="AI15" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>-13.6</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>8</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2733,33 +2745,33 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>25.4</v>
+        <v>28.6</v>
       </c>
       <c r="G16" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="H16" t="n">
         <v>35</v>
       </c>
-      <c r="H16" t="n">
-        <v>37.6</v>
-      </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
         <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -2781,30 +2793,26 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R16" t="n">
+        <v>41</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V16" t="n">
+        <v>4</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -2828,22 +2836,22 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
@@ -2853,26 +2861,26 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
@@ -2880,12 +2888,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2900,38 +2908,36 @@
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>28.6</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="H17" t="n">
-        <v>35</v>
+        <v>27.4</v>
       </c>
       <c r="I17" t="n">
         <v>8</v>
       </c>
       <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="n">
-        <v>4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O17" t="n">
+        <v>42</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -2939,10 +2945,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="R17" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2951,7 +2957,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -2960,7 +2966,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -2984,12 +2990,12 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2999,12 +3005,12 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
@@ -3019,7 +3025,7 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -3028,7 +3034,7 @@
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
@@ -3065,13 +3071,13 @@
         <v>26.8</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -3229,13 +3235,13 @@
         <v>18.7</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
